--- a/temp_doc/Data Jurusan.xlsx
+++ b/temp_doc/Data Jurusan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.5admin/temp_doc_jurusan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.5admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA36EAF9-DDBE-3D4F-A788-9B6F4C57E87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E319A11C-D2A5-B842-9E3A-EB99BF64BAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>AKL</t>
   </si>
@@ -66,7 +66,10 @@
     <t>JURUSAN</t>
   </si>
   <si>
-    <t>DKV</t>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>MULTIMEDIA</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -699,9 +702,8 @@
       <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7" t="str">
-        <f>UPPER(C5)</f>
-        <v>TEKNIK KOMPUTER DAN JARINGAN</v>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
